--- a/reports/db_version1.xlsx
+++ b/reports/db_version1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\PHPReports\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Department</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Plan</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -71,64 +68,126 @@
     <t>dep_status</t>
   </si>
   <si>
-    <t>-รายงานการประมวลผล
+    <t>cat_name -&gt;</t>
+  </si>
+  <si>
+    <t>dep_fullname -&gt;</t>
+  </si>
+  <si>
+    <t>des_report_start</t>
+  </si>
+  <si>
+    <t>des_report_end</t>
+  </si>
+  <si>
+    <t>https://www.studentstutorial.com/ajax/duplicate</t>
+  </si>
+  <si>
+    <t>Database : Report</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Attach</t>
+  </si>
+  <si>
+    <t>att_id</t>
+  </si>
+  <si>
+    <t>att_name</t>
+  </si>
+  <si>
+    <t>des_created_dtm</t>
+  </si>
+  <si>
+    <t>des_last_update_dtm</t>
+  </si>
+  <si>
+    <t>dep_area</t>
+  </si>
+  <si>
+    <t>Categorys</t>
+  </si>
+  <si>
+    <t>Jobtype</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>type_work -&gt;</t>
+  </si>
+  <si>
+    <t>ศูนย์ | สำหรับแก้ไข</t>
+  </si>
+  <si>
+    <t>จำนวนการแก้ไข้</t>
+  </si>
+  <si>
+    <t>วันที่สร้าง</t>
+  </si>
+  <si>
+    <t>วันที่แก้ไขล่าสุด</t>
+  </si>
+  <si>
+    <t>- ศูนย์คอมพิวเตอร์สำรองกรุงเกษม  | จศทผ3
+- ศูนย์คอมพิวเตอร์แจ้งวัฒนะ 1 | จศทผ1
+- ศูนย์คอมพิวเตอร์แจ้งวัฒนะ 2 | จศทผ2
+- ศูนย์ประมวลผลข้อมูลและรายงาน | มศทผ
+- ศูนย์ระบบรักษาความปลอดภัยทางกายภาพ | รศทผ</t>
+  </si>
+  <si>
+    <t>- รายงานการประมวลผล
 - ปัญหาการใช้อุปกรณ์
 - รายงานรักษาความปลอดภัย
 - รายงานการเข้าออก
 - ให้บริการศูนย์คอมพิวเตอร์</t>
   </si>
   <si>
-    <t>cat_name -&gt;</t>
-  </si>
-  <si>
-    <t>dep_fullname -&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-ศูนย์คอมพิวเตอร์สำรองกรุงเกษม  | จศทผ3
-- ศูนย์คอมพิวเตอร์แจ้งวัฒนะ 1 | จศทผ1
-- ศูนย์คอมพิวเตอร์แจ้งวัฒนะ 2 | จศทผ2
-- ศูนย์ประมวลผลข้อมูลและรายงาน | มศทผ
-- ระบบ CARD ACCESS CONTROL | </t>
-  </si>
-  <si>
-    <t>des_report_start</t>
-  </si>
-  <si>
-    <t>des_report_end</t>
-  </si>
-  <si>
-    <t>https://www.studentstutorial.com/ajax/duplicate</t>
-  </si>
-  <si>
-    <t>Database : Report</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Attach</t>
-  </si>
-  <si>
-    <t>att_id</t>
-  </si>
-  <si>
-    <t>att_name</t>
-  </si>
-  <si>
-    <t>des_created_dtm</t>
-  </si>
-  <si>
-    <t>des_last_update_dtm</t>
-  </si>
-  <si>
-    <t>dep_area</t>
+    <t>- ศูนย์คอมพิวเตอร์สำรองกรุงเกษม
+- ศูนย์คอมพิวเตอร์แจ้งวัฒนะ 1
+- ศูนย์คอมพิวเตอร์แจ้งวัฒนะ 2
+- ศูนย์ประมวลผลข้อมูลและรายงาน
+- ระบบ CARD ACCESS CONTROL
+- ระบบ CCTV</t>
+  </si>
+  <si>
+    <t>ชื่อย่อส่วนสาน | สำหรับเข้าใช้งาน</t>
+  </si>
+  <si>
+    <t>หัวข้อย่อยประเภทงาน |is null</t>
+  </si>
+  <si>
+    <t>ไฟล์แนบ | is null</t>
+  </si>
+  <si>
+    <t>is null</t>
+  </si>
+  <si>
+    <t>การดำเนินงาน | is null</t>
+  </si>
+  <si>
+    <t>ประเททงาน | not null</t>
+  </si>
+  <si>
+    <t>รายงานประจำเดือน | not null</t>
+  </si>
+  <si>
+    <t>รหัสรายงาน</t>
+  </si>
+  <si>
+    <t>รายงานเดือน</t>
+  </si>
+  <si>
+    <t>รายงานปี</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +222,16 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +262,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,19 +297,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -272,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,44 +349,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,207 +680,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="19.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="2.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="8"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A18:H18"/>
+  <mergeCells count="5">
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A23" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>